--- a/Koopman-Emulator-RL/5.2/RESULTS 5.2  different n/results 1000.xlsx
+++ b/Koopman-Emulator-RL/5.2/RESULTS 5.2  different n/results 1000.xlsx
@@ -519,28 +519,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.399</v>
+        <v>17.614</v>
       </c>
       <c r="C6">
-        <v>20.208</v>
+        <v>21.204</v>
       </c>
       <c r="D6">
-        <v>56.23599999999999</v>
+        <v>57.042</v>
       </c>
       <c r="E6">
-        <v>31.167</v>
+        <v>32.591</v>
       </c>
       <c r="F6">
-        <v>15.228</v>
+        <v>15.37</v>
       </c>
       <c r="G6">
-        <v>9.711</v>
+        <v>9.333</v>
       </c>
       <c r="H6">
-        <v>16.69</v>
+        <v>16.962</v>
       </c>
       <c r="I6">
-        <v>13.83</v>
+        <v>13.524</v>
       </c>
     </row>
     <row r="7" spans="1:9">
